--- a/board.xlsx
+++ b/board.xlsx
@@ -916,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AE17" sqref="AE17"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AC12" sqref="AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
